--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ren1-Atp6ap2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ren1-Atp6ap2.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5631849999999999</v>
+        <v>0.5668126666666667</v>
       </c>
       <c r="H2">
-        <v>1.689555</v>
+        <v>1.700438</v>
       </c>
       <c r="I2">
-        <v>0.7043965504662123</v>
+        <v>0.8744630508533847</v>
       </c>
       <c r="J2">
-        <v>0.7043965504662124</v>
+        <v>0.8744630508533846</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.726563333333334</v>
+        <v>10.56874366666667</v>
       </c>
       <c r="N2">
-        <v>17.17969</v>
+        <v>31.706231</v>
       </c>
       <c r="O2">
-        <v>0.02497773325024738</v>
+        <v>0.04029387683847273</v>
       </c>
       <c r="P2">
-        <v>0.02497773325024738</v>
+        <v>0.04029387683847273</v>
       </c>
       <c r="Q2">
-        <v>3.225114570883333</v>
+        <v>5.990497781019778</v>
       </c>
       <c r="R2">
-        <v>29.02603113795</v>
+        <v>53.914480029178</v>
       </c>
       <c r="S2">
-        <v>0.01759422913993947</v>
+        <v>0.0352355064708814</v>
       </c>
       <c r="T2">
-        <v>0.01759422913993947</v>
+        <v>0.0352355064708814</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5631849999999999</v>
+        <v>0.5668126666666667</v>
       </c>
       <c r="H3">
-        <v>1.689555</v>
+        <v>1.700438</v>
       </c>
       <c r="I3">
-        <v>0.7043965504662123</v>
+        <v>0.8744630508533847</v>
       </c>
       <c r="J3">
-        <v>0.7043965504662124</v>
+        <v>0.8744630508533846</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>13.69721566666666</v>
+        <v>13.69721566666667</v>
       </c>
       <c r="N3">
-        <v>41.09164699999999</v>
+        <v>41.091647</v>
       </c>
       <c r="O3">
-        <v>0.05974358079682043</v>
+        <v>0.05222133666117545</v>
       </c>
       <c r="P3">
-        <v>0.05974358079682043</v>
+        <v>0.05222133666117545</v>
       </c>
       <c r="Q3">
-        <v>7.714066405231665</v>
+        <v>7.763755337931779</v>
       </c>
       <c r="R3">
-        <v>69.42659764708499</v>
+        <v>69.87379804138601</v>
       </c>
       <c r="S3">
-        <v>0.04208317222577975</v>
+        <v>0.04566562937637319</v>
       </c>
       <c r="T3">
-        <v>0.04208317222577976</v>
+        <v>0.04566562937637319</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5631849999999999</v>
+        <v>0.5668126666666667</v>
       </c>
       <c r="H4">
-        <v>1.689555</v>
+        <v>1.700438</v>
       </c>
       <c r="I4">
-        <v>0.7043965504662123</v>
+        <v>0.8744630508533847</v>
       </c>
       <c r="J4">
-        <v>0.7043965504662124</v>
+        <v>0.8744630508533846</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>58.92739166666667</v>
+        <v>71.48326</v>
       </c>
       <c r="N4">
-        <v>176.782175</v>
+        <v>214.44978</v>
       </c>
       <c r="O4">
-        <v>0.2570254766266767</v>
+        <v>0.2725335920045991</v>
       </c>
       <c r="P4">
-        <v>0.2570254766266767</v>
+        <v>0.2725335920045991</v>
       </c>
       <c r="Q4">
-        <v>33.18702307579166</v>
+        <v>40.51761722262668</v>
       </c>
       <c r="R4">
-        <v>298.683207682125</v>
+        <v>364.65855500364</v>
       </c>
       <c r="S4">
-        <v>0.1810478591177651</v>
+        <v>0.2383205563243734</v>
       </c>
       <c r="T4">
-        <v>0.1810478591177652</v>
+        <v>0.2383205563243734</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5631849999999999</v>
+        <v>0.5668126666666667</v>
       </c>
       <c r="H5">
-        <v>1.689555</v>
+        <v>1.700438</v>
       </c>
       <c r="I5">
-        <v>0.7043965504662123</v>
+        <v>0.8744630508533847</v>
       </c>
       <c r="J5">
-        <v>0.7043965504662124</v>
+        <v>0.8744630508533846</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.84554366666667</v>
+        <v>7.094812</v>
       </c>
       <c r="N5">
-        <v>35.536631</v>
+        <v>21.284436</v>
       </c>
       <c r="O5">
-        <v>0.05166708419828715</v>
+        <v>0.02704933433306391</v>
       </c>
       <c r="P5">
-        <v>0.05166708419828716</v>
+        <v>0.02704933433306391</v>
       </c>
       <c r="Q5">
-        <v>6.671232509911666</v>
+        <v>4.021429309218667</v>
       </c>
       <c r="R5">
-        <v>60.041092589205</v>
+        <v>36.192863782968</v>
       </c>
       <c r="S5">
-        <v>0.03639411588192082</v>
+        <v>0.02365364342444427</v>
       </c>
       <c r="T5">
-        <v>0.03639411588192083</v>
+        <v>0.02365364342444427</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.5631849999999999</v>
+        <v>0.5668126666666667</v>
       </c>
       <c r="H6">
-        <v>1.689555</v>
+        <v>1.700438</v>
       </c>
       <c r="I6">
-        <v>0.7043965504662123</v>
+        <v>0.8744630508533847</v>
       </c>
       <c r="J6">
-        <v>0.7043965504662124</v>
+        <v>0.8744630508533846</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>79.80264533333333</v>
+        <v>88.21463766666666</v>
       </c>
       <c r="N6">
-        <v>239.407936</v>
+        <v>264.643913</v>
       </c>
       <c r="O6">
-        <v>0.3480777338473685</v>
+        <v>0.3363228267804361</v>
       </c>
       <c r="P6">
-        <v>0.3480777338473685</v>
+        <v>0.3363228267804361</v>
       </c>
       <c r="Q6">
-        <v>44.94365281205333</v>
+        <v>50.00117401487712</v>
       </c>
       <c r="R6">
-        <v>404.49287530848</v>
+        <v>450.010566133894</v>
       </c>
       <c r="S6">
-        <v>0.2451847550161827</v>
+        <v>0.2941018851780546</v>
       </c>
       <c r="T6">
-        <v>0.2451847550161827</v>
+        <v>0.2941018851780545</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.5631849999999999</v>
+        <v>0.5668126666666667</v>
       </c>
       <c r="H7">
-        <v>1.689555</v>
+        <v>1.700438</v>
       </c>
       <c r="I7">
-        <v>0.7043965504662123</v>
+        <v>0.8744630508533847</v>
       </c>
       <c r="J7">
-        <v>0.7043965504662124</v>
+        <v>0.8744630508533846</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>59.26737466666668</v>
+        <v>71.23288733333334</v>
       </c>
       <c r="N7">
-        <v>177.802124</v>
+        <v>213.698662</v>
       </c>
       <c r="O7">
-        <v>0.2585083912805999</v>
+        <v>0.2715790333822526</v>
       </c>
       <c r="P7">
-        <v>0.2585083912805999</v>
+        <v>0.2715790333822526</v>
       </c>
       <c r="Q7">
-        <v>33.37849640164666</v>
+        <v>40.3757028237729</v>
       </c>
       <c r="R7">
-        <v>300.40646761482</v>
+        <v>363.3813254139561</v>
       </c>
       <c r="S7">
-        <v>0.1820924190846244</v>
+        <v>0.2374858300792579</v>
       </c>
       <c r="T7">
-        <v>0.1820924190846245</v>
+        <v>0.2374858300792578</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.137966</v>
       </c>
       <c r="I8">
-        <v>0.05751974601692249</v>
+        <v>0.07095005479414014</v>
       </c>
       <c r="J8">
-        <v>0.05751974601692249</v>
+        <v>0.07095005479414014</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.726563333333334</v>
+        <v>10.56874366666667</v>
       </c>
       <c r="N8">
-        <v>17.17969</v>
+        <v>31.706231</v>
       </c>
       <c r="O8">
-        <v>0.02497773325024738</v>
+        <v>0.04029387683847273</v>
       </c>
       <c r="P8">
-        <v>0.02497773325024738</v>
+        <v>0.04029387683847273</v>
       </c>
       <c r="Q8">
-        <v>0.2633570122822222</v>
+        <v>0.4860424295717778</v>
       </c>
       <c r="R8">
-        <v>2.37021311054</v>
+        <v>4.374381866146</v>
       </c>
       <c r="S8">
-        <v>0.001436712872632669</v>
+        <v>0.002858852769557975</v>
       </c>
       <c r="T8">
-        <v>0.001436712872632669</v>
+        <v>0.002858852769557975</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.137966</v>
       </c>
       <c r="I9">
-        <v>0.05751974601692249</v>
+        <v>0.07095005479414014</v>
       </c>
       <c r="J9">
-        <v>0.05751974601692249</v>
+        <v>0.07095005479414014</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>13.69721566666666</v>
+        <v>13.69721566666667</v>
       </c>
       <c r="N9">
-        <v>41.09164699999999</v>
+        <v>41.091647</v>
       </c>
       <c r="O9">
-        <v>0.05974358079682043</v>
+        <v>0.05222133666117545</v>
       </c>
       <c r="P9">
-        <v>0.05974358079682043</v>
+        <v>0.05222133666117545</v>
       </c>
       <c r="Q9">
-        <v>0.6299166855557777</v>
+        <v>0.6299166855557778</v>
       </c>
       <c r="R9">
-        <v>5.669250170001999</v>
+        <v>5.669250170002001</v>
       </c>
       <c r="S9">
-        <v>0.003436435593574599</v>
+        <v>0.003705106697533637</v>
       </c>
       <c r="T9">
-        <v>0.003436435593574599</v>
+        <v>0.003705106697533638</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>0.137966</v>
       </c>
       <c r="I10">
-        <v>0.05751974601692249</v>
+        <v>0.07095005479414014</v>
       </c>
       <c r="J10">
-        <v>0.05751974601692249</v>
+        <v>0.07095005479414014</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>58.92739166666667</v>
+        <v>71.48326</v>
       </c>
       <c r="N10">
-        <v>176.782175</v>
+        <v>214.44978</v>
       </c>
       <c r="O10">
-        <v>0.2570254766266767</v>
+        <v>0.2725335920045991</v>
       </c>
       <c r="P10">
-        <v>0.2570254766266767</v>
+        <v>0.2725335920045991</v>
       </c>
       <c r="Q10">
-        <v>2.709992172894445</v>
+        <v>3.287419816386667</v>
       </c>
       <c r="R10">
-        <v>24.38992955605</v>
+        <v>29.58677834748</v>
       </c>
       <c r="S10">
-        <v>0.01478404013544489</v>
+        <v>0.01933627328597014</v>
       </c>
       <c r="T10">
-        <v>0.01478404013544489</v>
+        <v>0.01933627328597014</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.137966</v>
       </c>
       <c r="I11">
-        <v>0.05751974601692249</v>
+        <v>0.07095005479414014</v>
       </c>
       <c r="J11">
-        <v>0.05751974601692249</v>
+        <v>0.07095005479414014</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.84554366666667</v>
+        <v>7.094812</v>
       </c>
       <c r="N11">
-        <v>35.536631</v>
+        <v>21.284436</v>
       </c>
       <c r="O11">
-        <v>0.05166708419828715</v>
+        <v>0.02704933433306391</v>
       </c>
       <c r="P11">
-        <v>0.05166708419828716</v>
+        <v>0.02704933433306391</v>
       </c>
       <c r="Q11">
-        <v>0.5447607591717778</v>
+        <v>0.3262809441306667</v>
       </c>
       <c r="R11">
-        <v>4.902846832546</v>
+        <v>2.936528497176</v>
       </c>
       <c r="S11">
-        <v>0.002971877560520426</v>
+        <v>0.0019191517530759</v>
       </c>
       <c r="T11">
-        <v>0.002971877560520426</v>
+        <v>0.0019191517530759</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>0.137966</v>
       </c>
       <c r="I12">
-        <v>0.05751974601692249</v>
+        <v>0.07095005479414014</v>
       </c>
       <c r="J12">
-        <v>0.05751974601692249</v>
+        <v>0.07095005479414014</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>79.80264533333333</v>
+        <v>88.21463766666666</v>
       </c>
       <c r="N12">
-        <v>239.407936</v>
+        <v>264.643913</v>
       </c>
       <c r="O12">
-        <v>0.3480777338473685</v>
+        <v>0.3363228267804361</v>
       </c>
       <c r="P12">
-        <v>0.3480777338473685</v>
+        <v>0.3363228267804361</v>
       </c>
       <c r="Q12">
-        <v>3.670017255352889</v>
+        <v>4.056873566773112</v>
       </c>
       <c r="R12">
-        <v>33.03015529817601</v>
+        <v>36.511862100958</v>
       </c>
       <c r="S12">
-        <v>0.02002134284504658</v>
+        <v>0.02386212298859204</v>
       </c>
       <c r="T12">
-        <v>0.02002134284504658</v>
+        <v>0.02386212298859204</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>0.137966</v>
       </c>
       <c r="I13">
-        <v>0.05751974601692249</v>
+        <v>0.07095005479414014</v>
       </c>
       <c r="J13">
-        <v>0.05751974601692249</v>
+        <v>0.07095005479414014</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>59.26737466666668</v>
+        <v>71.23288733333334</v>
       </c>
       <c r="N13">
-        <v>177.802124</v>
+        <v>213.698662</v>
       </c>
       <c r="O13">
-        <v>0.2585083912805999</v>
+        <v>0.2715790333822526</v>
       </c>
       <c r="P13">
-        <v>0.2585083912805999</v>
+        <v>0.2715790333822526</v>
       </c>
       <c r="Q13">
-        <v>2.725627537753779</v>
+        <v>3.27590551127689</v>
       </c>
       <c r="R13">
-        <v>24.530647839784</v>
+        <v>29.483149601492</v>
       </c>
       <c r="S13">
-        <v>0.01486933700970332</v>
+        <v>0.01926854729941044</v>
       </c>
       <c r="T13">
-        <v>0.01486933700970332</v>
+        <v>0.01926854729941044</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1903546666666667</v>
+        <v>0.03538233333333334</v>
       </c>
       <c r="H14">
-        <v>0.571064</v>
+        <v>0.106147</v>
       </c>
       <c r="I14">
-        <v>0.2380837035168652</v>
+        <v>0.0545868943524752</v>
       </c>
       <c r="J14">
-        <v>0.2380837035168652</v>
+        <v>0.0545868943524752</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.726563333333334</v>
+        <v>10.56874366666667</v>
       </c>
       <c r="N14">
-        <v>17.17969</v>
+        <v>31.706231</v>
       </c>
       <c r="O14">
-        <v>0.02497773325024738</v>
+        <v>0.04029387683847273</v>
       </c>
       <c r="P14">
-        <v>0.02497773325024738</v>
+        <v>0.04029387683847273</v>
       </c>
       <c r="Q14">
-        <v>1.090078054462222</v>
+        <v>0.3739468113285556</v>
       </c>
       <c r="R14">
-        <v>9.810702490160001</v>
+        <v>3.365521301957</v>
       </c>
       <c r="S14">
-        <v>0.005946791237675243</v>
+        <v>0.002199517598033359</v>
       </c>
       <c r="T14">
-        <v>0.005946791237675244</v>
+        <v>0.002199517598033359</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1903546666666667</v>
+        <v>0.03538233333333334</v>
       </c>
       <c r="H15">
-        <v>0.571064</v>
+        <v>0.106147</v>
       </c>
       <c r="I15">
-        <v>0.2380837035168652</v>
+        <v>0.0545868943524752</v>
       </c>
       <c r="J15">
-        <v>0.2380837035168652</v>
+        <v>0.0545868943524752</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>13.69721566666666</v>
+        <v>13.69721566666667</v>
       </c>
       <c r="N15">
-        <v>41.09164699999999</v>
+        <v>41.091647</v>
       </c>
       <c r="O15">
-        <v>0.05974358079682043</v>
+        <v>0.05222133666117545</v>
       </c>
       <c r="P15">
-        <v>0.05974358079682043</v>
+        <v>0.05222133666117545</v>
       </c>
       <c r="Q15">
-        <v>2.607328922489777</v>
+        <v>0.4846394504565556</v>
       </c>
       <c r="R15">
-        <v>23.465960302408</v>
+        <v>4.361755054109</v>
       </c>
       <c r="S15">
-        <v>0.01422397297746607</v>
+        <v>0.002850600587268624</v>
       </c>
       <c r="T15">
-        <v>0.01422397297746608</v>
+        <v>0.002850600587268624</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>25</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.1903546666666667</v>
+        <v>0.03538233333333334</v>
       </c>
       <c r="H16">
-        <v>0.571064</v>
+        <v>0.106147</v>
       </c>
       <c r="I16">
-        <v>0.2380837035168652</v>
+        <v>0.0545868943524752</v>
       </c>
       <c r="J16">
-        <v>0.2380837035168652</v>
+        <v>0.0545868943524752</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>58.92739166666667</v>
+        <v>71.48326</v>
       </c>
       <c r="N16">
-        <v>176.782175</v>
+        <v>214.44978</v>
       </c>
       <c r="O16">
-        <v>0.2570254766266767</v>
+        <v>0.2725335920045991</v>
       </c>
       <c r="P16">
-        <v>0.2570254766266767</v>
+        <v>0.2725335920045991</v>
       </c>
       <c r="Q16">
-        <v>11.21710399824445</v>
+        <v>2.529244533073333</v>
       </c>
       <c r="R16">
-        <v>100.9539359842</v>
+        <v>22.76320079766</v>
       </c>
       <c r="S16">
-        <v>0.06119357737346665</v>
+        <v>0.01487676239425563</v>
       </c>
       <c r="T16">
-        <v>0.06119357737346666</v>
+        <v>0.01487676239425563</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>22</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.1903546666666667</v>
+        <v>0.03538233333333334</v>
       </c>
       <c r="H17">
-        <v>0.571064</v>
+        <v>0.106147</v>
       </c>
       <c r="I17">
-        <v>0.2380837035168652</v>
+        <v>0.0545868943524752</v>
       </c>
       <c r="J17">
-        <v>0.2380837035168652</v>
+        <v>0.0545868943524752</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.84554366666667</v>
+        <v>7.094812</v>
       </c>
       <c r="N17">
-        <v>35.536631</v>
+        <v>21.284436</v>
       </c>
       <c r="O17">
-        <v>0.05166708419828715</v>
+        <v>0.02704933433306391</v>
       </c>
       <c r="P17">
-        <v>0.05166708419828716</v>
+        <v>0.02704933433306391</v>
       </c>
       <c r="Q17">
-        <v>2.254854516153778</v>
+        <v>0.2510310031213334</v>
       </c>
       <c r="R17">
-        <v>20.293690645384</v>
+        <v>2.259279028092</v>
       </c>
       <c r="S17">
-        <v>0.01230109075584591</v>
+        <v>0.00147653915554374</v>
       </c>
       <c r="T17">
-        <v>0.01230109075584591</v>
+        <v>0.00147653915554374</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>26</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.1903546666666667</v>
+        <v>0.03538233333333334</v>
       </c>
       <c r="H18">
-        <v>0.571064</v>
+        <v>0.106147</v>
       </c>
       <c r="I18">
-        <v>0.2380837035168652</v>
+        <v>0.0545868943524752</v>
       </c>
       <c r="J18">
-        <v>0.2380837035168652</v>
+        <v>0.0545868943524752</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>79.80264533333333</v>
+        <v>88.21463766666666</v>
       </c>
       <c r="N18">
-        <v>239.407936</v>
+        <v>264.643913</v>
       </c>
       <c r="O18">
-        <v>0.3480777338473685</v>
+        <v>0.3363228267804361</v>
       </c>
       <c r="P18">
-        <v>0.3480777338473685</v>
+        <v>0.3363228267804361</v>
       </c>
       <c r="Q18">
-        <v>15.19080595154489</v>
+        <v>3.121239714801222</v>
       </c>
       <c r="R18">
-        <v>136.717253563904</v>
+        <v>28.091157433211</v>
       </c>
       <c r="S18">
-        <v>0.08287163598613917</v>
+        <v>0.01835881861378948</v>
       </c>
       <c r="T18">
-        <v>0.08287163598613918</v>
+        <v>0.01835881861378948</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>27</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.1903546666666667</v>
+        <v>0.03538233333333334</v>
       </c>
       <c r="H19">
-        <v>0.571064</v>
+        <v>0.106147</v>
       </c>
       <c r="I19">
-        <v>0.2380837035168652</v>
+        <v>0.0545868943524752</v>
       </c>
       <c r="J19">
-        <v>0.2380837035168652</v>
+        <v>0.0545868943524752</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>59.26737466666668</v>
+        <v>71.23288733333334</v>
       </c>
       <c r="N19">
-        <v>177.802124</v>
+        <v>213.698662</v>
       </c>
       <c r="O19">
-        <v>0.2585083912805999</v>
+        <v>0.2715790333822526</v>
       </c>
       <c r="P19">
-        <v>0.2585083912805999</v>
+        <v>0.2715790333822526</v>
       </c>
       <c r="Q19">
-        <v>11.28182134888178</v>
+        <v>2.520385763923778</v>
       </c>
       <c r="R19">
-        <v>101.536392139936</v>
+        <v>22.683471875314</v>
       </c>
       <c r="S19">
-        <v>0.06154663518627212</v>
+        <v>0.01482465600358436</v>
       </c>
       <c r="T19">
-        <v>0.06154663518627213</v>
+        <v>0.01482465600358436</v>
       </c>
     </row>
   </sheetData>
